--- a/data/lsd/elisa_vsg/250709 Résultats indirect ELISA vF.6.xlsx
+++ b/data/lsd/elisa_vsg/250709 Résultats indirect ELISA vF.6.xlsx
@@ -11363,8 +11363,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="9259fe1b952dc853dcaf14f7078ccc22">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="11627f76d2a82a971f29bd5674bd7693" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005F56A3FBA1F9FF429D4C886089ACEF10" ma:contentTypeVersion="10" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="3049ec1e9b6cbcb15db231c112dd9bea">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="974e1998-2087-4290-81d3-cf83f1cc5cbf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c4c0c7e6a1fa28b3fe57b5dfb92add9" ns2:_="">
     <xsd:import namespace="974e1998-2087-4290-81d3-cf83f1cc5cbf"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -11376,6 +11376,11 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:Uploaded" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -11404,6 +11409,35 @@
     <xsd:element name="Uploaded" ma:index="11" nillable="true" ma:displayName="Uploaded" ma:default="[today]" ma:format="DateOnly" ma:internalName="Uploaded">
       <xsd:simpleType>
         <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="ac598109-59a2-4592-852e-db50c3cd26ec" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -11519,12 +11553,15 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Uploaded xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">2025-07-11T10:55:06+00:00</Uploaded>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="974e1998-2087-4290-81d3-cf83f1cc5cbf">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F29FD26E-4D9B-4D12-9425-5EA120A74954}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D942537E-E6AB-400F-B36C-769B56E30D35}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
